--- a/biology/Médecine/Michael_Meaney/Michael_Meaney.xlsx
+++ b/biology/Médecine/Michael_Meaney/Michael_Meaney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Meaney, né en 1951, est un professeur québécois de psychiatrie.
-Il est professeur à l'Université McGill, ainsi que chercheur[1] et directeur adjoint du Centre de recherche de l'Hôpital Douglas[2].
-Il est spécialiste mondial de l'épigénétique et ses répercussions sur l'émergence de diverses maladies, predispositions et troubles du comportement. Globalement, il étudie les interactions mutuelles entre l' épigenôme, l'environnement et le comportement[1] en utilisant des modèles animaux reflétant des situations humaines.
+Il est professeur à l'Université McGill, ainsi que chercheur et directeur adjoint du Centre de recherche de l'Hôpital Douglas.
+Il est spécialiste mondial de l'épigénétique et ses répercussions sur l'émergence de diverses maladies, predispositions et troubles du comportement. Globalement, il étudie les interactions mutuelles entre l' épigenôme, l'environnement et le comportement en utilisant des modèles animaux reflétant des situations humaines.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2007 - Chevalier de l'Ordre national du Québec</t>
         </is>
